--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="751">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2258,6 +2258,15 @@
   </si>
   <si>
     <t>derby</t>
+  </si>
+  <si>
+    <t>φυσικός χυμός με Πέτρο Πολυκράτη στον Πανελλήνιο</t>
+  </si>
+  <si>
+    <t>σερενάτα στο καφέ του Πανελληνίου</t>
+  </si>
+  <si>
+    <t>ντάκος και τηγανιτές πατάτες στο καφέ του Πανελληνίου</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2418,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J778" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J780" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2711,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L778"/>
+  <dimension ref="A1:L780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="A778" sqref="A778"/>
+    <sheetView tabSelected="1" topLeftCell="B757" workbookViewId="0">
+      <selection activeCell="J781" sqref="J781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25396,16 +25405,94 @@
       </c>
     </row>
     <row r="778" spans="1:10">
-      <c r="A778" s="1"/>
-      <c r="B778" s="1"/>
-      <c r="C778" s="1"/>
-      <c r="D778" s="1"/>
-      <c r="E778" s="1"/>
-      <c r="F778" s="1"/>
+      <c r="A778" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C778" s="7">
+        <v>43523</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F778" s="1">
+        <v>5</v>
+      </c>
       <c r="G778" s="1"/>
-      <c r="H778" s="1"/>
-      <c r="I778" s="1"/>
-      <c r="J778" s="1"/>
+      <c r="H778" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I778" s="1">
+        <v>776</v>
+      </c>
+      <c r="J778" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10">
+      <c r="A779" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C779" s="7">
+        <v>43523</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F779" s="1">
+        <v>5</v>
+      </c>
+      <c r="G779" s="1"/>
+      <c r="H779" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I779" s="1">
+        <v>777</v>
+      </c>
+      <c r="J779" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10">
+      <c r="A780" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C780" s="7">
+        <v>43523</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F780" s="1">
+        <v>5</v>
+      </c>
+      <c r="G780" s="1"/>
+      <c r="H780" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I780" s="1">
+        <v>778</v>
+      </c>
+      <c r="J780" s="1" t="s">
+        <v>639</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/costs.xlsx
+++ b/DataBase/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="752">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2267,6 +2267,9 @@
   </si>
   <si>
     <t>ντάκος και τηγανιτές πατάτες στο καφέ του Πανελληνίου</t>
+  </si>
+  <si>
+    <t>softis χαρτομαντιλα</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2421,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J780" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A2:J784" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="amount" headerRowDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="11" name="type" totalsRowDxfId="8"/>
@@ -2720,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L780"/>
+  <dimension ref="A1:L784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B757" workbookViewId="0">
-      <selection activeCell="J781" sqref="J781"/>
+    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
+      <selection activeCell="I784" sqref="I784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25494,6 +25497,98 @@
         <v>639</v>
       </c>
     </row>
+    <row r="781" spans="1:10">
+      <c r="A781" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C781" s="7">
+        <v>43524</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F781" s="1">
+        <v>5</v>
+      </c>
+      <c r="G781" s="1"/>
+      <c r="H781" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I781" s="1">
+        <v>779</v>
+      </c>
+      <c r="J781" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10">
+      <c r="A782">
+        <v>3.9</v>
+      </c>
+      <c r="B782" t="s">
+        <v>207</v>
+      </c>
+      <c r="C782" s="7">
+        <v>43524</v>
+      </c>
+      <c r="D782" t="s">
+        <v>736</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F782" s="1">
+        <v>5</v>
+      </c>
+      <c r="H782" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I782" s="1">
+        <v>780</v>
+      </c>
+      <c r="J782" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10">
+      <c r="A783" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C783" s="7">
+        <v>43524</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F783" s="1">
+        <v>5</v>
+      </c>
+      <c r="G783" s="1"/>
+      <c r="H783" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I783" s="1">
+        <v>781</v>
+      </c>
+      <c r="J783" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10">
+      <c r="I784" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
